--- a/results/tabla_4b_raw.xlsx
+++ b/results/tabla_4b_raw.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>Predictor</t>
+  </si>
   <si>
     <t>aHR</t>
   </si>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,120 +441,135 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>0.9963177324782274</v>
       </c>
-      <c r="C2">
-        <v>0.9558815301172506</v>
-      </c>
       <c r="D2">
+        <v>0.9558815301172505</v>
+      </c>
+      <c r="E2">
         <v>1.038464488302014</v>
       </c>
-      <c r="E2">
-        <v>0.8614629040652365</v>
-      </c>
       <c r="F2">
-        <v>-0.003689063757658882</v>
+        <v>0.8614629040652364</v>
       </c>
       <c r="G2">
+        <v>-0.003689063757658887</v>
+      </c>
+      <c r="H2">
         <v>-0.04512129608125486</v>
       </c>
-      <c r="H2">
-        <v>0.0377431685659371</v>
-      </c>
       <c r="I2">
+        <v>0.03774316856593709</v>
+      </c>
+      <c r="J2">
         <v>0.02113928248192729</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.5815273333104441</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.07714044013705378</v>
+        <v>0.5815273333104446</v>
       </c>
       <c r="D3">
-        <v>4.383874901236364</v>
+        <v>0.07714044013705385</v>
       </c>
       <c r="E3">
-        <v>0.5989036012526965</v>
+        <v>4.383874901236368</v>
       </c>
       <c r="F3">
-        <v>-0.5420973032950166</v>
+        <v>0.5989036012526969</v>
       </c>
       <c r="G3">
-        <v>-2.562127620526684</v>
+        <v>-0.5420973032950158</v>
       </c>
       <c r="H3">
-        <v>1.477933013936651</v>
+        <v>-2.562127620526683</v>
       </c>
       <c r="I3">
+        <v>1.477933013936652</v>
+      </c>
+      <c r="J3">
         <v>1.030646651247374</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>0.4615007513283078</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2038336850761775</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.044885899977699</v>
       </c>
-      <c r="E4">
-        <v>0.06364571418806265</v>
-      </c>
       <c r="F4">
-        <v>-0.7732715970268873</v>
+        <v>0.06364571418806259</v>
       </c>
       <c r="G4">
+        <v>-0.7732715970268875</v>
+      </c>
+      <c r="H4">
         <v>-1.590450886885044</v>
       </c>
-      <c r="H4">
-        <v>0.04390769283126961</v>
-      </c>
       <c r="I4">
-        <v>0.4169358704057641</v>
+        <v>0.04390769283126927</v>
+      </c>
+      <c r="J4">
+        <v>0.416935870405764</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.5661200777864763</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.2168859878463499</v>
+        <v>0.5661200777864761</v>
       </c>
       <c r="D5">
+        <v>0.2168859878463498</v>
+      </c>
+      <c r="E5">
         <v>1.477697778705807</v>
       </c>
-      <c r="E5">
-        <v>0.2451267070233262</v>
-      </c>
       <c r="F5">
-        <v>-0.5689490717137028</v>
+        <v>0.245126707023326</v>
       </c>
       <c r="G5">
+        <v>-0.568949071713703</v>
+      </c>
+      <c r="H5">
         <v>-1.528383465143202</v>
       </c>
-      <c r="H5">
-        <v>0.3904853217157964</v>
-      </c>
       <c r="I5">
+        <v>0.3904853217157962</v>
+      </c>
+      <c r="J5">
         <v>0.4895163385640733</v>
       </c>
     </row>
